--- a/fsl-spark/src/test/results/xls/applyFontStylesToCell.xlsx
+++ b/fsl-spark/src/test/results/xls/applyFontStylesToCell.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/git/filemaker.plugin/ch.eugster.filemaker.fsl.plugin.test/resources/xls/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -79,8 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,61 +87,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <u val="none"/>
-      <color indexed="28"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-      <u val="none"/>
-      <color indexed="0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <i val="true"/>
-      <u val="none"/>
-      <color indexed="0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="none"/>
-      <color indexed="0"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -150,72 +104,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" shrinkToFit="false" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" shrinkToFit="false" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" shrinkToFit="false" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" shrinkToFit="false" wrapText="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -537,58 +431,58 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="4">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/fsl-spark/src/test/results/xls/applyFontStylesToCell.xlsx
+++ b/fsl-spark/src/test/results/xls/applyFontStylesToCell.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/git/filemaker.plugin/ch.eugster.filemaker.fsl.plugin.test/resources/xls/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -79,7 +79,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,16 +88,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <u val="none"/>
+      <color indexed="28"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <u val="none"/>
+      <color indexed="0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <i val="true"/>
+      <u val="none"/>
+      <color indexed="0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <i val="true"/>
+      <u val="none"/>
+      <color indexed="0"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -104,12 +150,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" shrinkToFit="false" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" shrinkToFit="false" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" shrinkToFit="false" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" shrinkToFit="false" wrapText="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -431,58 +537,58 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="4">
         <v>12</v>
       </c>
     </row>
